--- a/biology/Botanique/Liste_des_pays_par_superficie_forestière/Liste_des_pays_par_superficie_forestière.xlsx
+++ b/biology/Botanique/Liste_des_pays_par_superficie_forestière/Liste_des_pays_par_superficie_forestière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_pays_par_superficie_foresti%C3%A8re</t>
+          <t>Liste_des_pays_par_superficie_forestière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la surface occupée par la forêt dans tous les pays du monde, et dans certaines unités géographiques comprises dans ces pays.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_pays_par_superficie_foresti%C3%A8re</t>
+          <t>Liste_des_pays_par_superficie_forestière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Pays notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les États détenant le record de la plus grande couverture forestière sont, par continent :
 Afrique :
@@ -545,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_pays_par_superficie_foresti%C3%A8re</t>
+          <t>Liste_des_pays_par_superficie_forestière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,19 +577,12 @@
           <t>Superficie forestière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les données suivantes sont issues de The World Factbook de 2011.
-Superficie forestière par région du monde
-Superficie forestière par pays
-Par provinces / régions
-Australie
-Belgique
-Canada
-France
-Royaume-Uni
-États-Unis
-Autres</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les données suivantes sont issues de The World Factbook de 2011.
+</t>
         </is>
       </c>
     </row>
@@ -585,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_pays_par_superficie_foresti%C3%A8re</t>
+          <t>Liste_des_pays_par_superficie_forestière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,10 +607,44 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Superficie forestière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Superficie forestière par région du monde</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_pays_par_superficie_forestière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_pays_par_superficie_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Historique de la superficie forestière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste ci-dessous présente l'évolution historique entre 1990 et 2015 de la superficie forestière dans les 20 pays les plus forestiers. Entre 1990 et 2015, 1 291 359 km2 de forêt ont été rasés, ce qui correspond à la superficie totale du Pérou. Dans quelques pays comme la Russie, les États-Unis ou la Chine, la superficie a augmenté grâce notamment à des plans de reboisement. L'abbatage de bois parfois massif comme au Brésil, en Indonésie ainsi que dans certains pays africains, a à l'inverse contribué à la déforestation planétaire.
 </t>
